--- a/StructureDefinition-lmdi-practitioner.xlsx
+++ b/StructureDefinition-lmdi-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,11 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil for å dokumentere helsepersonell som har foreskrevet eller administrert legemidler i Norge. 
-Profilen er basert på den norske basisprofilen NoBasisPractitioner, men er begrenset til kun å inkludere:
-- Helsepersonellnummer som unik identifikator
-I denne profilen er personopplysninger som navn, kontaktinformasjon, fødselsdato og kjønn eksplisitt utelatt. Dette er gjort for å begrense behandling av personopplysninger til det som er nødvendig for formålet.
-Profilen brukes i sammenheng med legemiddeladministrering og -rekvirering, der det er behov for å dokumentere hvilket helsepersonell som har vært involvert.</t>
+    <t>Helsepersonell som har rekvirert legemidlet</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -642,7 +638,7 @@
     <t>Practitioner.identifier.value</t>
   </si>
   <si>
-    <t>Selve helsepersonellnummeret</t>
+    <t>Helsepersonellnummeret</t>
   </si>
   <si>
     <t>Det faktiske helsepersonellnummeret som er tildelt helsepersonellet. 
@@ -3604,7 +3600,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
